--- a/script_master_data_beltran/ficherosExcelOrigen/DED-Prosa_Adopcion IA_v1a.xlsx
+++ b/script_master_data_beltran/ficherosExcelOrigen/DED-Prosa_Adopcion IA_v1a.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4A88C5C-9BB2-458A-87B3-624FD5C05F86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CD59B7B-117B-4772-AC05-10989518F3DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22187,7 +22187,7 @@
   <dimension ref="A2:AS245"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="4" ySplit="5" topLeftCell="AK6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="5" topLeftCell="E240" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
       <selection pane="bottomRight" activeCell="AS5" sqref="AS5:AS12"/>
@@ -47657,12 +47657,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100E080B9D539EE5249B0F7896E1534F47F" ma:contentTypeVersion="10" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="1a88378f58b9ad7590fd740332c19a90">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8c298b4c-1b69-4120-abb9-a44ffc4bda23" xmlns:ns3="c3e1b4bb-9124-477c-aa49-683b9a26b58f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="910b3ddf48a2c6cdf16d80fb4d738ee7" ns2:_="" ns3:_="">
     <xsd:import namespace="8c298b4c-1b69-4120-abb9-a44ffc4bda23"/>
@@ -47863,6 +47857,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -47873,15 +47873,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8E2FEBBB-B4B0-4147-BA7E-181AD49E4B6A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BF214717-9442-4E99-A5A3-40161C82998F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -47900,6 +47891,15 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8E2FEBBB-B4B0-4147-BA7E-181AD49E4B6A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{890994BF-65F0-45C5-A04B-1A065C31A5EA}">
   <ds:schemaRefs>

--- a/script_master_data_beltran/ficherosExcelOrigen/DED-Prosa_Adopcion IA_v1a.xlsx
+++ b/script_master_data_beltran/ficherosExcelOrigen/DED-Prosa_Adopcion IA_v1a.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CD59B7B-117B-4772-AC05-10989518F3DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04B6EB56-E7C0-4AF2-A50E-44D1C4277308}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22187,10 +22187,10 @@
   <dimension ref="A2:AS245"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="4" ySplit="5" topLeftCell="E240" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="5" topLeftCell="AK6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="AS5" sqref="AS5:AS12"/>
+      <selection pane="bottomRight" activeCell="AS12" sqref="AS12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="12.75" customHeight="1"/>
@@ -47657,6 +47657,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100E080B9D539EE5249B0F7896E1534F47F" ma:contentTypeVersion="10" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="1a88378f58b9ad7590fd740332c19a90">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8c298b4c-1b69-4120-abb9-a44ffc4bda23" xmlns:ns3="c3e1b4bb-9124-477c-aa49-683b9a26b58f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="910b3ddf48a2c6cdf16d80fb4d738ee7" ns2:_="" ns3:_="">
     <xsd:import namespace="8c298b4c-1b69-4120-abb9-a44ffc4bda23"/>
@@ -47857,12 +47863,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -47873,6 +47873,15 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8E2FEBBB-B4B0-4147-BA7E-181AD49E4B6A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BF214717-9442-4E99-A5A3-40161C82998F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -47891,15 +47900,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8E2FEBBB-B4B0-4147-BA7E-181AD49E4B6A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{890994BF-65F0-45C5-A04B-1A065C31A5EA}">
   <ds:schemaRefs>
